--- a/RMPP/RMPP_Unit09_Exe9.1D.xlsx
+++ b/RMPP/RMPP_Unit09_Exe9.1D.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_FE4EE2009A02419FF4D1208B1D7CEBC7BC5F3C4D" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liebherr-my.sharepoint.com/personal/helenoilam_siu_liebherr_com/Documents/Documents/Private/Study/MSc Computer Science/Module07_RMPP/Unit 10 Statistical Worksheet/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_FE4EE2009A02419FF4D1208B1D7CEBC7BC5F3C4D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8717ABC8-314E-4EBB-BAFA-98F416A57ED1}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="15225" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="0" windowWidth="28740" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -56,6 +61,15 @@
   <si>
     <t>Percentages</t>
   </si>
+  <si>
+    <t>Area 2</t>
+  </si>
+  <si>
+    <t>Interpretation</t>
+  </si>
+  <si>
+    <t>In Area 1, most consumers lean towards brands other than the two major options, with Brand A being the least chosen and Brand B sitting in the middle. In Area 2, there is still an overall preference for other brands, followed by Brand B, and then Brand A in last place; however, the difference between these choices is not as striking as it is in Area 1. Overall, these results suggest that in both areas, respondents are generally more inclined to look beyond the two main brand options.</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -115,6 +129,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,10 +150,2033 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Area 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$15:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0BCB-4555-ADE8-181440A1FE19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2085429824"/>
+        <c:axId val="2085430304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2085429824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Brand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085430304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085430304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085429824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Area 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$15:$D$17</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>21.111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.555555555555557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5C0B-403B-BAD8-88F829842FAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2085429824"/>
+        <c:axId val="2085430304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2085429824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Brand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085430304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2085430304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Percentage</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2085429824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>75537</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79188370-F987-2B3A-EF98-56CE46B7A2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8791575" y="4457700"/>
+          <a:ext cx="5304762" cy="3619048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>14286</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1F9B07-F29A-3809-022E-0A448DFD485A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7569143-70D1-4DD7-8FB3-7910150C20F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,9 +2214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,26 +2249,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,26 +2284,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,13 +2460,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E161"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:N161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -476,7 +2487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -487,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -496,7 +2507,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -507,8 +2518,11 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -522,8 +2536,12 @@
         <f>COUNTIF(B2:B71,"A")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="2">
+        <f>COUNTIF(B72:B161,"A")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -537,8 +2555,12 @@
         <f>COUNTIF(B2:B71,"B")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="2">
+        <f>COUNTIF(B72:B161,"B")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -552,8 +2574,12 @@
         <f>COUNTIF(B2:B71,"Other")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2">
+        <f>COUNTIF(B72:B161,"Other")</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -567,8 +2593,12 @@
         <f>SUM(E6:E8)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <f>SUM(F6:F8)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -576,8 +2606,9 @@
         <v>3</v>
       </c>
       <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -585,8 +2616,9 @@
         <v>3</v>
       </c>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -596,8 +2628,9 @@
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -605,8 +2638,9 @@
         <v>3</v>
       </c>
       <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -617,8 +2651,11 @@
       <c r="E14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -632,8 +2669,12 @@
         <f>100*E6/E$9</f>
         <v>15.714285714285714</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="5">
+        <f t="shared" ref="F15:F17" si="0">100*F6/F$9</f>
+        <v>21.111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -647,8 +2688,12 @@
         <f>100*E7/E$9</f>
         <v>24.285714285714285</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>1</v>
       </c>
@@ -662,8 +2707,12 @@
         <f>100*E8/E$9</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>45.555555555555557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -677,8 +2726,12 @@
         <f>SUM(E15:E17)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <f>SUM(F15:F17)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -686,7 +2739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -694,7 +2747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -702,7 +2755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -710,7 +2763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -718,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -726,7 +2779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -734,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -742,7 +2795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -750,63 +2803,134 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>1</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>1</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>1</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>1</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -814,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -822,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -830,7 +2954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -838,7 +2962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -846,7 +2970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -854,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -862,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -870,7 +2994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -878,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -886,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -894,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -902,7 +3026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -910,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -918,7 +3042,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -926,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -934,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -942,7 +3066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
@@ -950,7 +3074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -958,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
@@ -966,7 +3090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -974,7 +3098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -982,7 +3106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -990,7 +3114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
@@ -998,7 +3122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
@@ -1006,7 +3130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -1014,7 +3138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -1022,7 +3146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -1030,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -1038,7 +3162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -1046,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -1054,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -1062,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -1070,7 +3194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -1078,7 +3202,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -1086,7 +3210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -1094,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -1102,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
@@ -1110,7 +3234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -1118,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
@@ -1126,7 +3250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -1134,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
@@ -1142,7 +3266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1150,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -1158,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -1166,7 +3290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -1174,7 +3298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -1182,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -1190,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -1198,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -1206,7 +3330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -1214,7 +3338,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -1222,7 +3346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
@@ -1230,7 +3354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1238,7 +3362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
@@ -1246,7 +3370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1254,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1262,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1270,7 +3394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1278,7 +3402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
@@ -1286,7 +3410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1294,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
@@ -1302,7 +3426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1310,7 +3434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1318,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1326,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1334,7 +3458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1342,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1350,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1358,7 +3482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1366,7 +3490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1374,7 +3498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
@@ -1382,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
@@ -1390,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1398,7 +3522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1406,7 +3530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1414,7 +3538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1422,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
@@ -1430,7 +3554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1438,7 +3562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1446,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1454,7 +3578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1462,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1470,7 +3594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1478,7 +3602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1486,7 +3610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1494,7 +3618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1502,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1510,7 +3634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1518,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1526,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1534,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
@@ -1542,7 +3666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1550,7 +3674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1558,7 +3682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
@@ -1566,7 +3690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
@@ -1574,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1582,7 +3706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1590,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1598,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1606,7 +3730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1614,7 +3738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1622,7 +3746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1630,7 +3754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
@@ -1638,7 +3762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1646,7 +3770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
@@ -1654,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1662,7 +3786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1670,7 +3794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1678,7 +3802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1686,7 +3810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1694,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1702,7 +3826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
@@ -1710,7 +3834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1718,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
@@ -1726,7 +3850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1734,7 +3858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1742,7 +3866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1750,7 +3874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1758,7 +3882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1766,7 +3890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
@@ -1774,7 +3898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1782,7 +3906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
@@ -1790,7 +3914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1798,7 +3922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1806,7 +3930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1814,7 +3938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
@@ -1823,10 +3947,14 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D29:N34"/>
+  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1836,7 +3964,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1850,7 +3978,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
